--- a/SCBAA/2017/Region 12.xlsx
+++ b/SCBAA/2017/Region 12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\Done XLSX - 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DB5E88-ED91-4226-B8FF-FADC9C03EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4E9ADC-82F5-4DFD-AA9B-CD282E940B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1380" windowWidth="14625" windowHeight="12540" firstSheet="1" activeTab="4" xr2:uid="{6835F4FE-A01C-46B9-B460-B9E5DA2B3751}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" xr2:uid="{6835F4FE-A01C-46B9-B460-B9E5DA2B3751}"/>
   </bookViews>
   <sheets>
     <sheet name="Cotabato" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -360,12 +367,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
@@ -400,6 +401,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -492,10 +499,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,14 +519,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -538,18 +543,15 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -559,8 +561,6 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -591,35 +591,11 @@
     <xf numFmtId="40" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -631,8 +607,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -652,8 +628,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="21" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="21" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -976,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951AC77E-974B-4652-82EE-5F6494323E7C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,109 +999,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="46"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -1100,7 +1110,9 @@
       <c r="D11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1109,7 +1121,9 @@
       <c r="D12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -1118,7 +1132,9 @@
       <c r="D13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1127,7 +1143,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="30">
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
@@ -1139,7 +1155,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="35"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1148,7 +1164,9 @@
       <c r="D16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1157,16 +1175,20 @@
       <c r="D17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1175,8 +1197,8 @@
         <v>48</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="30">
-        <f>SUM(E16:E18)</f>
+      <c r="E19" s="25">
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -1196,7 +1218,9 @@
         <v>46</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1205,7 +1229,9 @@
         <v>45</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1214,7 +1240,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1223,7 +1249,9 @@
       <c r="D24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="32"/>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1232,7 +1260,9 @@
       <c r="D25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1241,7 +1271,9 @@
       <c r="D26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1250,7 +1282,9 @@
       <c r="D27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -1259,7 +1293,7 @@
         <v>39</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -1268,7 +1302,9 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1277,7 +1313,9 @@
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -1286,7 +1324,9 @@
         <v>36</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1304,7 +1344,9 @@
       <c r="D33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -1313,7 +1355,9 @@
       <c r="D34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -1322,7 +1366,9 @@
       <c r="D35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -1331,7 +1377,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -1340,7 +1388,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="30">
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>0</v>
       </c>
@@ -1350,7 +1398,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="29"/>
+      <c r="E38" s="66"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -1359,7 +1407,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -1368,7 +1416,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="16"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -1386,7 +1434,9 @@
       <c r="D42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -1395,7 +1445,9 @@
       <c r="D43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1405,7 +1457,9 @@
       <c r="D44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
@@ -1416,16 +1470,18 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="12"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -1434,7 +1490,9 @@
       <c r="D47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -1443,7 +1501,9 @@
       <c r="D48" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -1452,16 +1512,18 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -1470,7 +1532,9 @@
       <c r="D51" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -1479,7 +1543,9 @@
       <c r="D52" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -1488,7 +1554,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="11"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -1497,7 +1563,9 @@
       <c r="D54" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="7"/>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -1506,16 +1574,20 @@
       <c r="D55" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="13"/>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="12"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="20"/>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -1524,7 +1596,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="26"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -1533,7 +1605,9 @@
       <c r="D58" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -1542,7 +1616,9 @@
       <c r="D59" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="27"/>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -1551,7 +1627,9 @@
       <c r="D60" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="10"/>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -1560,7 +1638,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="26"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -1569,7 +1647,9 @@
       <c r="D62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="7"/>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -1578,7 +1658,9 @@
       <c r="D63" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -1587,7 +1669,9 @@
       <c r="D64" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -1596,7 +1680,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -1605,7 +1689,9 @@
       <c r="D66" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="7"/>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1615,7 +1701,9 @@
       <c r="D67" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="7"/>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1625,7 +1713,9 @@
       <c r="D68" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="7"/>
+      <c r="E68" s="10">
+        <v>0</v>
+      </c>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1644,7 +1734,9 @@
       <c r="D70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -1653,7 +1745,9 @@
       <c r="D71" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -1662,7 +1756,9 @@
       <c r="D72" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="25"/>
+      <c r="E72" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -1680,7 +1776,7 @@
         <v>23</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="16"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -1689,7 +1785,9 @@
       <c r="D75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="13"/>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -1698,16 +1796,18 @@
       <c r="D76" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="24"/>
+      <c r="E76" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="16"/>
+      <c r="E77" s="65"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -1716,8 +1816,10 @@
       <c r="D78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="22"/>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="19"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -1726,7 +1828,9 @@
       <c r="D79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="13"/>
+      <c r="E79" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -1735,27 +1839,31 @@
         <v>19</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="17"/>
+      <c r="E80" s="64"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="23"/>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="22"/>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
+      <c r="F82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -1764,6 +1872,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="8"/>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -1772,7 +1881,9 @@
       <c r="D84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21"/>
+      <c r="E84" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -1781,7 +1892,9 @@
       <c r="D85" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21"/>
+      <c r="E85" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -1790,7 +1903,7 @@
         <v>17</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="16"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -1799,7 +1912,9 @@
       <c r="D87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="E87" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -1808,7 +1923,9 @@
       <c r="D88" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="7"/>
+      <c r="E88" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -1817,7 +1934,7 @@
         <v>16</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="16"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -1826,7 +1943,9 @@
       <c r="D90" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="7"/>
+      <c r="E90" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -1835,7 +1954,9 @@
       <c r="D91" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="7"/>
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -1844,14 +1965,16 @@
       <c r="D92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="20"/>
+      <c r="E92" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="8"/>
-      <c r="E93" s="19">
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>0</v>
       </c>
@@ -1862,8 +1985,8 @@
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
@@ -1872,9 +1995,9 @@
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="12"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
@@ -1883,10 +2006,12 @@
       <c r="D96" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="15"/>
+      <c r="E96" s="10">
+        <v>0</v>
+      </c>
+      <c r="F96" s="13"/>
       <c r="G96" s="8"/>
-      <c r="I96" s="14"/>
+      <c r="I96" s="12"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
@@ -1895,11 +2020,11 @@
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="15"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="13"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="14"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="12"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
@@ -1907,7 +2032,9 @@
       <c r="D98" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="13"/>
+      <c r="E98" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
@@ -1923,7 +2050,9 @@
       <c r="D100" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="7"/>
+      <c r="E100" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
@@ -1935,11 +2064,13 @@
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
-      <c r="C102" s="12"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="11"/>
+      <c r="E102" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
@@ -1955,7 +2086,9 @@
       <c r="D104" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="10"/>
+      <c r="E104" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
@@ -1963,6 +2096,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
+      <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -1970,7 +2104,9 @@
       <c r="D106" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="9"/>
+      <c r="E106" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
@@ -1986,7 +2122,9 @@
       <c r="D108" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="7"/>
+      <c r="E108" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
@@ -2003,7 +2141,9 @@
       <c r="D110" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="7"/>
+      <c r="E110" s="10">
+        <v>0</v>
+      </c>
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2011,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="4">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
+        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -2058,115 +2198,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="7">
@@ -2174,10 +2314,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="7">
@@ -2185,10 +2325,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7">
@@ -2196,31 +2336,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="30">
+      <c r="D14" s="36"/>
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>407020440.99000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7">
@@ -2228,10 +2368,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7">
@@ -2239,126 +2379,126 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="41">
         <v>112591273.48</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="30">
+      <c r="D19" s="36"/>
+      <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>258562704.51999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="7">
         <v>1353366731</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="7">
         <v>1227440.8400000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -2366,41 +2506,41 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="7">
         <v>77169845.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="7">
@@ -2408,10 +2548,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -2419,78 +2559,78 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="58">
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="30">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>2100395643</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="7">
@@ -2498,10 +2638,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7">
@@ -2509,10 +2649,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="7">
@@ -2520,19 +2660,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -2540,10 +2680,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -2551,10 +2691,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -2562,19 +2702,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7">
@@ -2582,10 +2722,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7">
@@ -2593,10 +2733,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="7">
@@ -2604,19 +2744,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -2624,10 +2764,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="7">
@@ -2635,10 +2775,10 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="49" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="7">
@@ -2646,19 +2786,19 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="7">
@@ -2666,10 +2806,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="7">
@@ -2677,10 +2817,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49" t="s">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="7">
@@ -2688,19 +2828,19 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="36"/>
+      <c r="B61" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="7">
@@ -2708,10 +2848,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="7">
@@ -2719,10 +2859,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="7">
@@ -2730,19 +2870,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="7">
@@ -2750,10 +2890,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="7">
@@ -2761,10 +2901,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49" t="s">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="7">
@@ -2772,70 +2912,70 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49" t="s">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="36"/>
+      <c r="B73" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="7">
@@ -2843,10 +2983,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="7">
@@ -2854,19 +2994,19 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="61" t="s">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="7">
@@ -2874,42 +3014,42 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="56">
+      <c r="E79" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="61" t="s">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="46" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
       </c>
-      <c r="F81" s="62"/>
+      <c r="F81" s="47"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="61" t="s">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="46" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="7">
@@ -2917,49 +3057,49 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="36"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -2967,10 +3107,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -2978,19 +3118,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -2998,10 +3138,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -3009,10 +3149,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E92" s="7">
@@ -3020,84 +3160,84 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="19">
+      <c r="D93" s="36"/>
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>1453974202.9499998</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="54"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="39"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="7">
         <v>17853299.010000002</v>
       </c>
-      <c r="F96" s="63"/>
-      <c r="G96" s="49"/>
-      <c r="I96" s="54"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="36"/>
+      <c r="I96" s="39"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="54"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="39"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="56">
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49" t="s">
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -3105,17 +3245,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="49" t="s">
+      <c r="B102" s="36"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="7">
@@ -3123,34 +3263,34 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="64">
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49" t="s">
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="7">
@@ -3158,17 +3298,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49" t="s">
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -3176,27 +3316,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="38"/>
+      <c r="B109" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49" t="s">
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>12377139.68</v>
       </c>
-      <c r="F110" s="65"/>
+      <c r="F110" s="50"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="38" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -3205,12 +3345,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
+      <c r="A112" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>1580651216.0399997</v>
@@ -3247,115 +3387,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="7">
@@ -3363,10 +3503,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="7">
@@ -3374,10 +3514,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7">
@@ -3385,31 +3525,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="30">
+      <c r="D14" s="36"/>
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>124241746.56</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7">
@@ -3417,10 +3557,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7">
@@ -3428,10 +3568,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="7">
@@ -3439,73 +3579,73 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="30">
+      <c r="D19" s="36"/>
+      <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>71626028.149999991</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="7">
         <v>637248939</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="7">
@@ -3513,10 +3653,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="7">
@@ -3524,30 +3664,30 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -3555,52 +3695,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="58">
+      <c r="D31" s="36"/>
+      <c r="E31" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -3608,78 +3748,78 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="7">
         <v>99365000</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="30">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>936588742.54000008</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="7">
@@ -3687,10 +3827,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7">
@@ -3698,10 +3838,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="7">
@@ -3709,19 +3849,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -3729,10 +3869,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -3740,10 +3880,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -3751,19 +3891,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7">
@@ -3771,10 +3911,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7">
@@ -3782,10 +3922,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="7">
@@ -3793,19 +3933,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -3813,83 +3953,83 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="56">
+      <c r="E55" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="69">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="64">
+      <c r="E58" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="68">
+      <c r="E59" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="64">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="36"/>
+      <c r="B61" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="7">
@@ -3897,10 +4037,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="7">
@@ -3908,10 +4048,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="7">
@@ -3919,19 +4059,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="7">
@@ -3939,10 +4079,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="7">
@@ -3950,10 +4090,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49" t="s">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="7">
@@ -3961,70 +4101,70 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49" t="s">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="36"/>
+      <c r="B73" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="7">
@@ -4032,10 +4172,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="7">
@@ -4043,19 +4183,19 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="61" t="s">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="7">
@@ -4063,10 +4203,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="7">
@@ -4074,31 +4214,31 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="61" t="s">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="46" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="7">
         <v>4350063</v>
       </c>
-      <c r="F81" s="62"/>
+      <c r="F81" s="47"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="61" t="s">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="46" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="7">
@@ -4106,49 +4246,49 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="36"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -4156,10 +4296,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -4167,19 +4307,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -4187,10 +4327,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -4198,77 +4338,77 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="69">
+      <c r="E92" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="19">
+      <c r="D93" s="36"/>
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>719765555.05000007</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="54"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="39"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="7">
         <v>3824959.37</v>
       </c>
-      <c r="F96" s="63"/>
-      <c r="G96" s="49"/>
-      <c r="I96" s="54"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="36"/>
+      <c r="I96" s="39"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="54"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="39"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="7">
@@ -4276,17 +4416,17 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49" t="s">
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -4294,52 +4434,52 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="B102" s="36"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="64">
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49" t="s">
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="7">
@@ -4347,17 +4487,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49" t="s">
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -4365,27 +4505,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="38"/>
+      <c r="B109" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49" t="s">
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>1028995.2</v>
       </c>
-      <c r="F110" s="65"/>
+      <c r="F110" s="50"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="38" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -4394,12 +4534,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
+      <c r="A112" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>767152851.48000002</v>
@@ -4436,115 +4576,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="7">
@@ -4552,10 +4692,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="7">
@@ -4563,10 +4703,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7">
@@ -4574,31 +4714,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="30">
+      <c r="D14" s="36"/>
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>148012545.68000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7">
@@ -4606,10 +4746,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7">
@@ -4617,106 +4757,106 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="41">
         <v>16681902.950000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="30">
+      <c r="D19" s="36"/>
+      <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>49553545.689999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="7">
         <v>628533235</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="7">
         <v>413316.37</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="7">
@@ -4724,19 +4864,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -4744,52 +4884,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="58">
+      <c r="D31" s="36"/>
+      <c r="E31" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -4797,78 +4937,78 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="7">
         <v>73294066.810000002</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="30">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>899971325.54999995</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="7">
@@ -4876,10 +5016,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7">
@@ -4887,10 +5027,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="7">
@@ -4898,19 +5038,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -4918,10 +5058,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -4929,10 +5069,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -4940,19 +5080,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7">
@@ -4960,10 +5100,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7">
@@ -4971,10 +5111,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="7">
@@ -4982,19 +5122,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -5002,10 +5142,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="7">
@@ -5013,41 +5153,41 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="69">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="64">
+      <c r="E58" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="7">
@@ -5055,30 +5195,30 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="64">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="36"/>
+      <c r="B61" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="7">
@@ -5086,10 +5226,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="7">
@@ -5097,10 +5237,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="7">
@@ -5108,19 +5248,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="7">
@@ -5128,10 +5268,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="7">
@@ -5139,10 +5279,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49" t="s">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="7">
@@ -5150,70 +5290,70 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49" t="s">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="36"/>
+      <c r="B73" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="7">
@@ -5221,10 +5361,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="7">
@@ -5232,19 +5372,19 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="61" t="s">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="7">
@@ -5252,10 +5392,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="7">
@@ -5263,31 +5403,31 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="61" t="s">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="46" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="7">
         <v>9269054.4499999993</v>
       </c>
-      <c r="F81" s="62"/>
+      <c r="F81" s="47"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="61" t="s">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="46" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="7">
@@ -5295,49 +5435,49 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="36"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -5345,10 +5485,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -5356,19 +5496,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -5376,10 +5516,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -5387,95 +5527,95 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="69">
+      <c r="E92" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="19">
+      <c r="D93" s="36"/>
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>666741629.65000021</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="54"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="39"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="7">
         <v>13838</v>
       </c>
-      <c r="F96" s="63"/>
-      <c r="G96" s="49"/>
-      <c r="I96" s="54"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="36"/>
+      <c r="I96" s="39"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="54"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="39"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="56">
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49" t="s">
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -5483,52 +5623,52 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="B102" s="36"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="64">
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49" t="s">
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="7">
@@ -5536,17 +5676,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49" t="s">
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -5554,18 +5694,18 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="38"/>
+      <c r="B109" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49" t="s">
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
@@ -5573,7 +5713,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="38" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -5582,12 +5722,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
+      <c r="A112" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>778649829.2900002</v>
@@ -5610,7 +5750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F4C13-39AD-4C1C-80BA-8A98DD7F711D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
@@ -5624,115 +5764,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="7">
@@ -5740,10 +5880,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="7">
@@ -5751,10 +5891,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7">
@@ -5762,31 +5902,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="30">
+      <c r="D14" s="36"/>
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>44244042.539999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7">
@@ -5794,10 +5934,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7">
@@ -5805,10 +5945,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="7">
@@ -5816,115 +5956,115 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="30">
+      <c r="D19" s="36"/>
+      <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>59429541.219999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="7">
         <v>435905472</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -5932,52 +6072,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="58">
+      <c r="D31" s="36"/>
+      <c r="E31" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -5985,78 +6125,78 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="58">
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="30">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>539579055.75999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="7">
@@ -6064,10 +6204,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7">
@@ -6075,10 +6215,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="7">
@@ -6086,19 +6226,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -6106,10 +6246,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -6117,10 +6257,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -6128,19 +6268,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7">
@@ -6148,10 +6288,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7">
@@ -6159,10 +6299,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="7">
@@ -6170,19 +6310,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -6190,10 +6330,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="7">
@@ -6201,10 +6341,10 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="49" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="7">
@@ -6212,61 +6352,61 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="64">
+      <c r="E58" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="68">
+      <c r="E59" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="64">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="36"/>
+      <c r="B61" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="7">
@@ -6274,10 +6414,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="7">
@@ -6285,10 +6425,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="7">
@@ -6296,19 +6436,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="7">
@@ -6316,10 +6456,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="7">
@@ -6327,10 +6467,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49" t="s">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="7">
@@ -6338,70 +6478,70 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49" t="s">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="36"/>
+      <c r="B73" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="7">
@@ -6409,10 +6549,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="7">
@@ -6420,19 +6560,19 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="61" t="s">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="7">
@@ -6440,10 +6580,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="7">
@@ -6451,31 +6591,31 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="61" t="s">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="46" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
       </c>
-      <c r="F81" s="62"/>
+      <c r="F81" s="47"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="61" t="s">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="46" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="7">
@@ -6483,49 +6623,49 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="36"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -6533,10 +6673,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -6544,19 +6684,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -6564,10 +6704,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -6575,10 +6715,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E92" s="7">
@@ -6586,66 +6726,66 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="19">
+      <c r="D93" s="36"/>
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>568326344.52999997</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="54"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="39"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="7">
         <v>946080.83</v>
       </c>
-      <c r="F96" s="63"/>
-      <c r="G96" s="49"/>
-      <c r="I96" s="54"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="36"/>
+      <c r="I96" s="39"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="54"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="39"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="7">
@@ -6653,17 +6793,17 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49" t="s">
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -6671,17 +6811,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="49" t="s">
+      <c r="B102" s="36"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="7">
@@ -6689,34 +6829,34 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="64">
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49" t="s">
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="7">
@@ -6724,17 +6864,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49" t="s">
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -6742,27 +6882,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="38"/>
+      <c r="B109" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49" t="s">
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>8992966.1899999995</v>
       </c>
-      <c r="F110" s="65"/>
+      <c r="F110" s="50"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="38" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -6771,12 +6911,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
+      <c r="A112" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>609939303.78999996</v>
